--- a/sequences/04_localizer.xlsx
+++ b/sequences/04_localizer.xlsx
@@ -31,643 +31,772 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
   </si>
   <si>
     <t>dog/dog014.png</t>
   </si>
   <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
     <t>dog/dog010.png</t>
   </si>
   <si>
-    <t>dog/dog004.png</t>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
   </si>
   <si>
     <t>flower/flower009.png</t>
   </si>
   <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
   </si>
   <si>
     <t>face/face005.png</t>
   </si>
   <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
     <t>dog/dog006.png</t>
   </si>
   <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
     <t>car/car005.png</t>
   </si>
   <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
   </si>
   <si>
     <t>flower/flower031.png</t>
   </si>
   <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
+    <t>flower/flower025.png</t>
   </si>
   <si>
     <t>flower/flower022.png</t>
   </si>
   <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
   </si>
   <si>
     <t>dog/dog039.png</t>
   </si>
   <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
     <t>face/face036.png</t>
   </si>
   <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
   </si>
   <si>
     <t>dog/dog048.png</t>
   </si>
   <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
     <t>car/car058.png</t>
   </si>
   <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
     <t>dog/dog057.png</t>
   </si>
   <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
     <t>car/car059.png</t>
   </si>
   <si>
-    <t>face/face063.png</t>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
   </si>
   <si>
     <t>dog/dog063.png</t>
   </si>
   <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
     <t>face/face057.png</t>
   </si>
   <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
+    <t>flower/flower060.png</t>
   </si>
   <si>
     <t>dog/dog051.png</t>
@@ -676,139 +805,10 @@
     <t>dog/dog050.png</t>
   </si>
   <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
     <t>dog/dog061.png</t>
   </si>
   <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
     <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.644222457892222</v>
+        <v>1.542882426150129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.363012995366414</v>
+        <v>1.729813440229459</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1.41267255174596</v>
+        <v>1.520652110981216</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.504729150685872</v>
+        <v>1.290054682775829</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.632355033400652</v>
+        <v>1.247347884811766</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.59530385636239</v>
+        <v>1.534028951067709</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.387778713193507</v>
+        <v>1.497657896898684</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.492497187744152</v>
+        <v>1.630607879696676</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.55734733795992</v>
+        <v>1.366822878135824</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.633534677382039</v>
+        <v>1.583823130632567</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.629147735488054</v>
+        <v>1.526707180892832</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.630160116320687</v>
+        <v>1.458254070122111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.536911588086441</v>
+        <v>1.550082757943472</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.371400910774117</v>
+        <v>1.606341449265516</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.675766176522668</v>
+        <v>1.410164057778138</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.473526005024602</v>
+        <v>1.452859356573524</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.534877894627178</v>
+        <v>1.550201789837302</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1.652389523613766</v>
+        <v>1.171409660824623</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.58536245691593</v>
+        <v>1.508974510936221</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.57486519988668</v>
+        <v>1.119306574236925</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.505048933061363</v>
+        <v>1.431052031765752</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.204768403567053</v>
+        <v>1.300733583907997</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.468877991399423</v>
+        <v>1.53952136355109</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.501662245999717</v>
+        <v>1.351787918176582</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.547098804010471</v>
+        <v>1.750936438399791</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.487572633766912</v>
+        <v>1.564380109639306</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.58474609012558</v>
+        <v>1.609741247059141</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.486459532017498</v>
+        <v>1.439223267985804</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.212067851065606</v>
+        <v>1.347680443280529</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.504978461066309</v>
+        <v>1.298176244266385</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.497595502169794</v>
+        <v>1.782918957500873</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.325840015744239</v>
+        <v>1.448460945545861</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.524718907991177</v>
+        <v>1.518125613367299</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.318276467729062</v>
+        <v>1.393135494324841</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.49800768301753</v>
+        <v>1.491646426073209</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.37398136889264</v>
+        <v>1.467662107024814</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.662297122984886</v>
+        <v>1.46460707518986</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.396466123366816</v>
+        <v>1.624284266099963</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.776320494449878</v>
+        <v>1.878138090422158</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.492533763558833</v>
+        <v>1.418607649383513</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.512449873283736</v>
+        <v>1.576735572663539</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.146757964116732</v>
+        <v>1.646805777392771</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.399694453810241</v>
+        <v>1.444343803108981</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.553850212788613</v>
+        <v>1.701797826434856</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.458273022497727</v>
+        <v>1.506572212240631</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.395055773594651</v>
+        <v>1.688729304887502</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1.514063268181167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.327269146984293</v>
+        <v>1.618210780059786</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.418187522235548</v>
+        <v>1.489449249613269</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.493169347950984</v>
+        <v>1.68754797427219</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.647742198403631</v>
+        <v>1.339324171540158</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.458524772673311</v>
+        <v>1.471368759196072</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.648918738311503</v>
+        <v>1.497791273192584</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.466008141653384</v>
+        <v>1.771476314580654</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.418899166641733</v>
+        <v>1.461890072208428</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.502975005348258</v>
+        <v>1.380619999360519</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.593690884439394</v>
+        <v>1.413004617814571</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.622149403412825</v>
+        <v>1.39478245437053</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.520048726458306</v>
+        <v>1.249242937717747</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.634345180328239</v>
+        <v>1.561332962464152</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.384889686482658</v>
+        <v>1.493641256589489</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.328795132168557</v>
+        <v>1.537388891943631</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.63197928847599</v>
+        <v>1.581545303032258</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.410376777976133</v>
+        <v>1.290393041001009</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.267595261229973</v>
+        <v>1.544517818759028</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.682937838560136</v>
+        <v>1.267785597774294</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.666550282672695</v>
+        <v>1.298190776845505</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.474808414284685</v>
+        <v>1.621860100581629</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.47238833870069</v>
+        <v>1.455340106975789</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.579522423387878</v>
+        <v>1.563757241328082</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.750546711666121</v>
+        <v>1.486558408598838</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.50603658426323</v>
+        <v>1.374288925401651</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.496160724863718</v>
+        <v>1.4530334122995</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.346877246831708</v>
+        <v>1.804196253610824</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.562375526672218</v>
+        <v>1.638464614019197</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.38817161012483</v>
+        <v>1.148659490982258</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.612211057210341</v>
+        <v>1.414530874231484</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.510021126973357</v>
+        <v>1.515712048331112</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.461229950859292</v>
+        <v>1.380004677792324</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.310122993418722</v>
+        <v>1.472759754301548</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.402298989675411</v>
+        <v>1.727816725168064</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.656258716274901</v>
+        <v>1.72198523025132</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.701536365984556</v>
+        <v>1.583381711500509</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.273785421878014</v>
+        <v>1.473016193436504</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.594086584451069</v>
+        <v>1.430065980959164</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.421344355821459</v>
+        <v>1.423691032748894</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.793817546133838</v>
+        <v>1.793217471670567</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.384244913340048</v>
+        <v>1.305728103623867</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.677382081761507</v>
+        <v>1.509564812183586</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.607664481582961</v>
+        <v>1.528074082185165</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.794833674492247</v>
+        <v>1.161227796829225</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.607816954382531</v>
+        <v>1.48149942931383</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.525671346154603</v>
+        <v>1.631024552234448</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.578253259665034</v>
+        <v>1.411638592494701</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.580529886758559</v>
+        <v>1.696339946525887</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.419418320603355</v>
+        <v>1.472248315225036</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.566595314670754</v>
+        <v>1.288548104827087</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.656655074798397</v>
+        <v>1.859257915490322</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.372190593154055</v>
+        <v>1.535393801306735</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.297113135385942</v>
+        <v>1.253413927621204</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.382420441901729</v>
+        <v>1.611296474676919</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.484909897257197</v>
+        <v>1.334135800591478</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.615676796413497</v>
+        <v>1.693411107198132</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.432736075463196</v>
+        <v>1.951456425270198</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.604927884043093</v>
+        <v>1.372790959470285</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.566708998176973</v>
+        <v>1.591757342832163</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.250371524351293</v>
+        <v>1.879270584282332</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.596210428028478</v>
+        <v>1.332704474305838</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.470692186570846</v>
+        <v>1.458243421778544</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.497360037640943</v>
+        <v>1.368714019634283</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.627457338230532</v>
+        <v>1.786140124555982</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.395710077968844</v>
+        <v>1.554318824232824</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.513133017962801</v>
+        <v>1.384206298078201</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.531555241759203</v>
+        <v>1.338749940001647</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.529210691774946</v>
+        <v>1.412055479579448</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.469591690813905</v>
+        <v>1.252449052885341</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.4854147802406</v>
+        <v>1.775161173619044</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.258802393279587</v>
+        <v>1.278799644948235</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.571273015691334</v>
+        <v>1.57462992808241</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.16972226076065</v>
+        <v>1.643078376020411</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.404765238836698</v>
+        <v>1.455222687399116</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.681119490032933</v>
+        <v>1.628155082426446</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.429891896206959</v>
+        <v>1.331205707433216</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.350410488277736</v>
+        <v>1.361741888839462</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.432102885996373</v>
+        <v>1.362655697664061</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.60356871045424</v>
+        <v>1.618471250825921</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.694978505471394</v>
+        <v>1.678923583565815</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.431566454308232</v>
+        <v>1.362403200941519</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.734213860129283</v>
+        <v>1.585733087573093</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.686841436804654</v>
+        <v>1.690018847624446</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.558124641201798</v>
+        <v>1.647299881505581</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.65185207768216</v>
+        <v>1.501164492056293</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.277358299567215</v>
+        <v>1.418299639805461</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.471059556197996</v>
+        <v>1.385415632885051</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.789588153406689</v>
+        <v>1.484025396946303</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.594826810503017</v>
+        <v>1.572132962686987</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.330699378651345</v>
+        <v>1.235087832265731</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.689620364607938</v>
+        <v>1.645868635670477</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.669252252299733</v>
+        <v>1.655081901982884</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.432902272406511</v>
+        <v>1.469854145681556</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.641194060096529</v>
+        <v>1.509267834464022</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.492405102568346</v>
+        <v>1.33512114177085</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.51312073821891</v>
+        <v>1.561642522997686</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.346396341790657</v>
+        <v>1.18986800483043</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.443432134882711</v>
+        <v>1.403488806969899</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.420247212655826</v>
+        <v>1.456944891446719</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1.843296174375975</v>
+        <v>1.565658422105954</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.536758637576477</v>
+        <v>1.537030106075978</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.371525019646439</v>
+        <v>1.629982116983688</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.494181763183125</v>
+        <v>1.508493246105656</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.418399871000938</v>
+        <v>1.659543145435075</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.465190471098804</v>
+        <v>1.404193916608044</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.206141397834833</v>
+        <v>1.306548181895711</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.285177233168782</v>
+        <v>1.518347027301769</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.419005196200934</v>
+        <v>1.952462708126106</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.134920497124737</v>
+        <v>1.328972651376735</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.261943437403404</v>
+        <v>1.402290253367459</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.436481181144464</v>
+        <v>1.530697591557944</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.460297573864102</v>
+        <v>1.344492664953794</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.5697773481666</v>
+        <v>1.393576589850775</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.463123686822694</v>
+        <v>1.216723974901565</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.628299703675468</v>
+        <v>1.463872354993019</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.453169617012683</v>
+        <v>1.687891309008259</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.639057615324394</v>
+        <v>1.408678608391727</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.49237632839632</v>
+        <v>1.54466397474534</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.594698294503103</v>
+        <v>1.330891363466198</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.461405002392341</v>
+        <v>1.560992491408976</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.39615633306717</v>
+        <v>1.238719833503678</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.466366060598865</v>
+        <v>1.299062010069112</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.541526274422697</v>
+        <v>1.598240578425818</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.435934333014664</v>
+        <v>1.691010628032209</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.454771718023453</v>
+        <v>1.327177527370398</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.532704673649487</v>
+        <v>1.351530630129762</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.238065784739863</v>
+        <v>1.294762593673458</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.787020364167783</v>
+        <v>1.595905933037685</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.545458908013395</v>
+        <v>1.575805237123063</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.709668604809176</v>
+        <v>1.328360008235999</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.58645382043875</v>
+        <v>1.409598553694604</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.49465638195776</v>
+        <v>1.312513314281641</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.355154939094567</v>
+        <v>1.517294552006492</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.302237433496997</v>
+        <v>1.45608887500636</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.522486007852009</v>
+        <v>1.607628717208303</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.492028162859572</v>
+        <v>1.383009142755803</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.523482556414511</v>
+        <v>1.480186395927066</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.344614445792624</v>
+        <v>1.643948087405659</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.52036983749609</v>
+        <v>1.206761292045555</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.632126771324269</v>
+        <v>1.336573922835585</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.66510965114892</v>
+        <v>1.182589428064021</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.569393462375078</v>
+        <v>1.362836481817008</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.235961269576982</v>
+        <v>1.256202661426677</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.691363689771564</v>
+        <v>1.359300826455057</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.450142071948424</v>
+        <v>1.598759729806143</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.648952625353869</v>
+        <v>1.228323048104077</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.391961206668422</v>
+        <v>1.542032091721419</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.584073494539881</v>
+        <v>1.225222151262809</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.461723350720972</v>
+        <v>1.396027977814388</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.859999328467433</v>
+        <v>1.5864412888018</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.537793190235705</v>
+        <v>1.285053085515815</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.497404855281766</v>
+        <v>1.509616278080167</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.671348386378316</v>
+        <v>1.495662644541285</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.61704523108365</v>
+        <v>1.538733367979412</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.462590117537131</v>
+        <v>1.632469642831647</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.284936166703138</v>
+        <v>1.663667871569022</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.616840794943686</v>
+        <v>1.576757437258958</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.517784739646925</v>
+        <v>1.383035843933221</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.708441454332067</v>
+        <v>1.437648654051865</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.432323993027192</v>
+        <v>1.165325952952575</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.499901094729595</v>
+        <v>1.227038005876151</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.718025425469374</v>
+        <v>1.300552378371349</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.300481896957739</v>
+        <v>1.418620128552413</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.638995332819013</v>
+        <v>1.710283194169653</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.625229168673863</v>
+        <v>1.551464772050707</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.465409598642933</v>
+        <v>1.428474847422514</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.409570543824297</v>
+        <v>1.613674454308937</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.585869689576214</v>
+        <v>1.615395574913637</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.5287278473638</v>
+        <v>1.363029941006112</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.340793662345152</v>
+        <v>1.711953925460949</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.429819832525065</v>
+        <v>1.652761183074652</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.753345383265176</v>
+        <v>1.382814435691766</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.478137752220029</v>
+        <v>1.342794628306746</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.435373032029035</v>
+        <v>1.677541570016453</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.6781436466809</v>
+        <v>1.169451741076772</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.4657534816578</v>
+        <v>1.575184673425526</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.538476721632535</v>
+        <v>1.639737293765458</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.240303781593339</v>
+        <v>1.441163237791154</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.775443509616727</v>
+        <v>1.494690355207833</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.57303178997621</v>
+        <v>1.577928350698612</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.205093681027347</v>
+        <v>1.309638623645143</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.432980198320365</v>
+        <v>1.515803107576654</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.602698447343832</v>
+        <v>1.416388793234647</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.666467697573623</v>
+        <v>1.693930234878082</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.661336053712449</v>
+        <v>1.363667732912519</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.527935291398218</v>
+        <v>1.778080788821689</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.537451805410172</v>
+        <v>1.447055837858108</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.453252507779735</v>
+        <v>1.686434837277928</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.499088016879716</v>
+        <v>1.740108023355122</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.572519558436523</v>
+        <v>1.142699579023881</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.830183878522796</v>
+        <v>1.368631305581087</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.400272555154313</v>
+        <v>1.649541754182221</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.331543104879455</v>
+        <v>1.55263590264856</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.530964881510786</v>
+        <v>1.504496627883332</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.582063026407819</v>
+        <v>1.755842385243228</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.685357600457816</v>
+        <v>1.469534711334002</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.487341958134183</v>
+        <v>1.576924098914826</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.373436873579882</v>
+        <v>1.565403717406341</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.537954468370476</v>
+        <v>1.646125007609757</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.489239408018173</v>
+        <v>1.601847118952981</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.672644754877137</v>
+        <v>1.538112761989729</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.531676905652331</v>
+        <v>1.272007797448206</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.597675723428843</v>
+        <v>1.498431630027811</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.648888255548967</v>
+        <v>1.485463338795538</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.490301504274609</v>
+        <v>1.956490362751604</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.222204318970543</v>
+        <v>1.616869508172784</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.493118440565981</v>
+        <v>1.665561061770703</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.600048767862137</v>
+        <v>1.341655591798236</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.343967411780371</v>
+        <v>1.730924405100576</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_localizer.xlsx
+++ b/sequences/04_localizer.xlsx
@@ -31,9 +31,6 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
@@ -43,772 +40,775 @@
     <t>face</t>
   </si>
   <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.542882426150129</v>
+        <v>1.683048979789938</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.729813440229459</v>
+        <v>1.428046956102736</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.520652110981216</v>
+        <v>1.491115856703599</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.290054682775829</v>
+        <v>1.446097821799412</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.247347884811766</v>
+        <v>1.571869373001587</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.534028951067709</v>
+        <v>1.394177438295507</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.497657896898684</v>
+        <v>1.479366065361543</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.630607879696676</v>
+        <v>1.607605715175126</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.366822878135824</v>
+        <v>1.431561291481521</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.583823130632567</v>
+        <v>1.479408117351767</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.526707180892832</v>
+        <v>1.508969609757103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.458254070122111</v>
+        <v>1.445799813621247</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.550082757943472</v>
+        <v>1.212851976470236</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.606341449265516</v>
+        <v>1.692715772804642</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.410164057778138</v>
+        <v>1.672478527385256</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.452859356573524</v>
+        <v>1.650799870294451</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.550201789837302</v>
+        <v>1.29881855153386</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.171409660824623</v>
+        <v>1.353155299558284</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.508974510936221</v>
+        <v>1.431371969752761</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.119306574236925</v>
+        <v>1.675731998261764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.431052031765752</v>
+        <v>1.396089823873319</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.300733583907997</v>
+        <v>1.706692293331236</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.53952136355109</v>
+        <v>1.373548622635897</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.351787918176582</v>
+        <v>1.464410338481997</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.750936438399791</v>
+        <v>1.520768766546669</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.564380109639306</v>
+        <v>1.500468793634252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.609741247059141</v>
+        <v>1.455914784827606</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.439223267985804</v>
+        <v>1.612045514557431</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.347680443280529</v>
+        <v>1.339045068821877</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.298176244266385</v>
+        <v>1.604204380091226</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.782918957500873</v>
+        <v>1.55426229494983</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.448460945545861</v>
+        <v>1.526297014246774</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.518125613367299</v>
+        <v>1.274702905409087</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.393135494324841</v>
+        <v>1.247476241628409</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.491646426073209</v>
+        <v>1.480816496911004</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.467662107024814</v>
+        <v>1.375660217840719</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.46460707518986</v>
+        <v>1.464094388416187</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.624284266099963</v>
+        <v>1.637985193208373</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.878138090422158</v>
+        <v>1.294070167510945</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.418607649383513</v>
+        <v>1.372409618461912</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.576735572663539</v>
+        <v>1.650658319649751</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.646805777392771</v>
+        <v>1.52037841887649</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.444343803108981</v>
+        <v>1.382080310596141</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.701797826434856</v>
+        <v>1.382093296721163</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.506572212240631</v>
+        <v>1.725049566173813</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.688729304887502</v>
+        <v>1.55561378879143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.514063268181167</v>
+        <v>1.416559488313992</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.618210780059786</v>
+        <v>1.494733169299964</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.489449249613269</v>
+        <v>1.440087363538066</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.68754797427219</v>
+        <v>1.193230631940616</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.339324171540158</v>
+        <v>1.382240500065226</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.471368759196072</v>
+        <v>1.295034775798202</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.497791273192584</v>
+        <v>1.406450457930201</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.771476314580654</v>
+        <v>1.503721058175838</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.461890072208428</v>
+        <v>1.609034152852993</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.380619999360519</v>
+        <v>1.686289139681733</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.413004617814571</v>
+        <v>1.494162776620391</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.39478245437053</v>
+        <v>1.553804999062373</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.249242937717747</v>
+        <v>1.59622711933274</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.561332962464152</v>
+        <v>1.609153971993271</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.493641256589489</v>
+        <v>1.573286789229907</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.537388891943631</v>
+        <v>1.4121726245861</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.581545303032258</v>
+        <v>1.689851372347706</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.290393041001009</v>
+        <v>1.395188664808576</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.544517818759028</v>
+        <v>1.712163093136241</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.267785597774294</v>
+        <v>1.366452357942559</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.298190776845505</v>
+        <v>1.439584134650778</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.621860100581629</v>
+        <v>1.558124331790466</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.455340106975789</v>
+        <v>1.429003521216744</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.563757241328082</v>
+        <v>1.644005520880838</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.486558408598838</v>
+        <v>1.398359235085738</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.374288925401651</v>
+        <v>1.465669554605525</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.4530334122995</v>
+        <v>1.513148750026662</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.804196253610824</v>
+        <v>1.377157770787027</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.638464614019197</v>
+        <v>1.467349173162443</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.148659490982258</v>
+        <v>1.526440981509062</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.414530874231484</v>
+        <v>1.540391353896166</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.515712048331112</v>
+        <v>1.522277488020639</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.380004677792324</v>
+        <v>1.494055257228224</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.472759754301548</v>
+        <v>1.53844708867495</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.727816725168064</v>
+        <v>1.431165726619887</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.72198523025132</v>
+        <v>1.541625466592937</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.583381711500509</v>
+        <v>1.386825328829234</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.473016193436504</v>
+        <v>1.379614987625239</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.430065980959164</v>
+        <v>1.413312666851517</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.423691032748894</v>
+        <v>1.631018437398634</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.793217471670567</v>
+        <v>1.489358592536752</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.305728103623867</v>
+        <v>1.445744854789272</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.509564812183586</v>
+        <v>1.696154762521098</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.528074082185165</v>
+        <v>1.20076915024759</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.161227796829225</v>
+        <v>1.493583063794325</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.48149942931383</v>
+        <v>1.777872302546074</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.631024552234448</v>
+        <v>1.377836998656428</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.411638592494701</v>
+        <v>1.664586547266219</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.696339946525887</v>
+        <v>1.583580824159911</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.472248315225036</v>
+        <v>1.447392735483325</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.288548104827087</v>
+        <v>1.358485217016755</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.859257915490322</v>
+        <v>1.378041406440308</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.535393801306735</v>
+        <v>1.172455909996025</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.253413927621204</v>
+        <v>1.532755507302809</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.611296474676919</v>
+        <v>1.722507167923261</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.334135800591478</v>
+        <v>1.371296630327108</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.693411107198132</v>
+        <v>1.367167610623752</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.951456425270198</v>
+        <v>1.623734440470985</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.372790959470285</v>
+        <v>1.641642889593166</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.591757342832163</v>
+        <v>1.558559677934095</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.879270584282332</v>
+        <v>1.391087772370865</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.332704474305838</v>
+        <v>1.491985976613868</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.458243421778544</v>
+        <v>1.790375170645393</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.368714019634283</v>
+        <v>1.54612441490738</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.786140124555982</v>
+        <v>1.422439351254512</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.554318824232824</v>
+        <v>1.300621382363919</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.384206298078201</v>
+        <v>1.475183363221082</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.338749940001647</v>
+        <v>1.636698092680362</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.412055479579448</v>
+        <v>1.485966253545413</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.252449052885341</v>
+        <v>1.497114487947936</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.775161173619044</v>
+        <v>1.559230040750067</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.278799644948235</v>
+        <v>1.319650625800399</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.57462992808241</v>
+        <v>1.608382082640221</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.643078376020411</v>
+        <v>1.483468159895361</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.455222687399116</v>
+        <v>1.533309899002667</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.628155082426446</v>
+        <v>1.435193455028255</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.331205707433216</v>
+        <v>1.313461171981278</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.361741888839462</v>
+        <v>1.801474441521998</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.362655697664061</v>
+        <v>1.335230921553153</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.618471250825921</v>
+        <v>1.490916801604231</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.678923583565815</v>
+        <v>1.585567105459817</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.362403200941519</v>
+        <v>1.450391408620181</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.585733087573093</v>
+        <v>1.287257467333293</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.690018847624446</v>
+        <v>1.455962956961333</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.647299881505581</v>
+        <v>1.356444156118666</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.501164492056293</v>
+        <v>1.367058339634064</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.418299639805461</v>
+        <v>1.687184728777063</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.385415632885051</v>
+        <v>1.595269830450475</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.484025396946303</v>
+        <v>1.631453429159667</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.572132962686987</v>
+        <v>1.566912688855643</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.235087832265731</v>
+        <v>1.580159550341598</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.645868635670477</v>
+        <v>1.413098527127792</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.655081901982884</v>
+        <v>1.450213857484098</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.469854145681556</v>
+        <v>1.658481333103882</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.509267834464022</v>
+        <v>1.738040919578109</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.33512114177085</v>
+        <v>1.535866768116855</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.561642522997686</v>
+        <v>1.433247262596738</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.18986800483043</v>
+        <v>1.531152592797256</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.403488806969899</v>
+        <v>1.34523708276233</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.456944891446719</v>
+        <v>1.472934617014137</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.565658422105954</v>
+        <v>1.524479973801214</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.537030106075978</v>
+        <v>1.966424453825186</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.629982116983688</v>
+        <v>1.763865579211046</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.508493246105656</v>
+        <v>1.454839113650174</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1.659543145435075</v>
+        <v>1.534855347486415</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.404193916608044</v>
+        <v>1.348719639881317</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.306548181895711</v>
+        <v>1.556648740922505</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.518347027301769</v>
+        <v>1.785605788041097</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.952462708126106</v>
+        <v>1.34863147736974</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.328972651376735</v>
+        <v>1.696908712503499</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.402290253367459</v>
+        <v>1.225461392727938</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.530697591557944</v>
+        <v>1.560244431676577</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.344492664953794</v>
+        <v>1.570592421957497</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.393576589850775</v>
+        <v>1.658369226816101</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.216723974901565</v>
+        <v>1.536497277230285</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.463872354993019</v>
+        <v>1.297690888928214</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.687891309008259</v>
+        <v>1.652097735944465</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.408678608391727</v>
+        <v>1.48196131615275</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.54466397474534</v>
+        <v>1.580257818597691</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.330891363466198</v>
+        <v>1.418452238639627</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.560992491408976</v>
+        <v>1.467185863528848</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.238719833503678</v>
+        <v>1.586038127340274</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.299062010069112</v>
+        <v>1.66868746847678</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.598240578425818</v>
+        <v>1.495589483329204</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.691010628032209</v>
+        <v>1.74493147964219</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.327177527370398</v>
+        <v>1.372438733691824</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.351530630129762</v>
+        <v>1.446876403140885</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.294762593673458</v>
+        <v>1.517075872859366</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.595905933037685</v>
+        <v>1.462358325789268</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.575805237123063</v>
+        <v>1.403389058969093</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.328360008235999</v>
+        <v>1.363446580353183</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.409598553694604</v>
+        <v>1.539634703122114</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.312513314281641</v>
+        <v>1.563205343149524</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.517294552006492</v>
+        <v>1.6135008786895</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.45608887500636</v>
+        <v>1.328012670631894</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.607628717208303</v>
+        <v>1.744528304655327</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.383009142755803</v>
+        <v>1.651035288486899</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.480186395927066</v>
+        <v>1.272029296899168</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.643948087405659</v>
+        <v>1.453141225737877</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.206761292045555</v>
+        <v>1.419808911744134</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.336573922835585</v>
+        <v>1.625367279817566</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.182589428064021</v>
+        <v>1.639543174965951</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.362836481817008</v>
+        <v>1.364370739382001</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.256202661426677</v>
+        <v>1.051774461905759</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.359300826455057</v>
+        <v>1.38253078101867</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.598759729806143</v>
+        <v>1.365487152723771</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.228323048104077</v>
+        <v>1.473983436271591</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.542032091721419</v>
+        <v>1.406796094993804</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.225222151262809</v>
+        <v>1.435919801773331</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.396027977814388</v>
+        <v>1.701633465870783</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.5864412888018</v>
+        <v>1.616980244933042</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.285053085515815</v>
+        <v>1.700250499080073</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.509616278080167</v>
+        <v>1.616676776074486</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.495662644541285</v>
+        <v>1.679032805668508</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.538733367979412</v>
+        <v>1.719691149669014</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.632469642831647</v>
+        <v>1.549321127753496</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.663667871569022</v>
+        <v>1.450254706868836</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.576757437258958</v>
+        <v>1.369096694646153</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.383035843933221</v>
+        <v>1.422784334606139</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.437648654051865</v>
+        <v>1.427582148822478</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.165325952952575</v>
+        <v>1.4217710617883</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.227038005876151</v>
+        <v>1.662926322605683</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.300552378371349</v>
+        <v>1.318060930738124</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.418620128552413</v>
+        <v>1.442976447575381</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.710283194169653</v>
+        <v>1.603850744063617</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.551464772050707</v>
+        <v>1.514792315142012</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.428474847422514</v>
+        <v>1.331683294018251</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.613674454308937</v>
+        <v>1.669380449299068</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.615395574913637</v>
+        <v>1.457151692844881</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.363029941006112</v>
+        <v>1.65966968858105</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.711953925460949</v>
+        <v>1.559774357616655</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.652761183074652</v>
+        <v>1.307944990799564</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.382814435691766</v>
+        <v>1.589601802543374</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.342794628306746</v>
+        <v>1.711138417697773</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.677541570016453</v>
+        <v>1.35524104545846</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>1.169451741076772</v>
+        <v>1.604591171577495</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.575184673425526</v>
+        <v>1.518590934872056</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.639737293765458</v>
+        <v>1.310772285691158</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.441163237791154</v>
+        <v>1.365565315897662</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.494690355207833</v>
+        <v>1.599442317915845</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.577928350698612</v>
+        <v>1.918846366733889</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.309638623645143</v>
+        <v>1.302678598023767</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.515803107576654</v>
+        <v>1.622267858976677</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.416388793234647</v>
+        <v>1.548405258995823</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.693930234878082</v>
+        <v>1.540943682932799</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.363667732912519</v>
+        <v>1.463982645692941</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.778080788821689</v>
+        <v>1.709572169808272</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.447055837858108</v>
+        <v>1.346218114985404</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.686434837277928</v>
+        <v>1.612017335655883</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.740108023355122</v>
+        <v>1.706843603402135</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.142699579023881</v>
+        <v>1.413702358711132</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.368631305581087</v>
+        <v>1.511196108764542</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.649541754182221</v>
+        <v>1.576134064677868</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.55263590264856</v>
+        <v>1.467774094563119</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.504496627883332</v>
+        <v>1.481729387703648</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.755842385243228</v>
+        <v>1.495050680022593</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.469534711334002</v>
+        <v>1.301778766698261</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.576924098914826</v>
+        <v>1.506818581813305</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.565403717406341</v>
+        <v>1.465506006066611</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.646125007609757</v>
+        <v>1.203166216583128</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.601847118952981</v>
+        <v>1.257664499614205</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.538112761989729</v>
+        <v>1.312079197520926</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.272007797448206</v>
+        <v>1.490997572785237</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.498431630027811</v>
+        <v>1.543143310227454</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.485463338795538</v>
+        <v>1.434654322607738</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.956490362751604</v>
+        <v>1.598170961883054</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.616869508172784</v>
+        <v>1.518213043563111</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.665561061770703</v>
+        <v>1.025584849778323</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.341655591798236</v>
+        <v>1.289853978876702</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.730924405100576</v>
+        <v>1.341312502017942</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_localizer.xlsx
+++ b/sequences/04_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
+    <t>face/face048.jpg</t>
   </si>
   <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
   </si>
   <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
   </si>
   <si>
     <t>face/face092.jpg</t>
   </si>
   <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.683048979789938</v>
+        <v>1.622532345963193</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.428046956102736</v>
+        <v>1.576619640623526</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.491115856703599</v>
+        <v>1.452635528107567</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.446097821799412</v>
+        <v>1.414077418208635</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.571869373001587</v>
+        <v>1.510362835603473</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.394177438295507</v>
+        <v>1.502365671397575</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.479366065361543</v>
+        <v>1.715254898632581</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.607605715175126</v>
+        <v>1.375007638098418</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.431561291481521</v>
+        <v>1.70932260164898</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.479408117351767</v>
+        <v>1.463350692715424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.508969609757103</v>
+        <v>1.450130352613336</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.445799813621247</v>
+        <v>1.555948338341123</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.212851976470236</v>
+        <v>1.527870536940896</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.692715772804642</v>
+        <v>1.440533329541792</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.672478527385256</v>
+        <v>1.423862090893859</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.650799870294451</v>
+        <v>1.350984239208934</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.29881855153386</v>
+        <v>1.478375694613815</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.353155299558284</v>
+        <v>1.475973320798575</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.431371969752761</v>
+        <v>1.427992388895879</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.675731998261764</v>
+        <v>1.257535398273107</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.396089823873319</v>
+        <v>1.781474141679447</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.706692293331236</v>
+        <v>1.78668713988897</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.373548622635897</v>
+        <v>1.544189479793242</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.464410338481997</v>
+        <v>1.541678971871119</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.520768766546669</v>
+        <v>1.314162581798068</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.500468793634252</v>
+        <v>1.557078085868491</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.455914784827606</v>
+        <v>1.601807899138133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.612045514557431</v>
+        <v>1.189290138672338</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.339045068821877</v>
+        <v>1.35089513325539</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.604204380091226</v>
+        <v>1.858298069568486</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.55426229494983</v>
+        <v>1.571598612128106</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.526297014246774</v>
+        <v>1.263909809851372</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.274702905409087</v>
+        <v>1.319964003454702</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.247476241628409</v>
+        <v>1.447212899979243</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.480816496911004</v>
+        <v>1.387264646086722</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.375660217840719</v>
+        <v>1.65284306835258</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.464094388416187</v>
+        <v>1.304813249223358</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.637985193208373</v>
+        <v>1.574190510610667</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.294070167510945</v>
+        <v>1.673777939890131</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.372409618461912</v>
+        <v>1.64063541983804</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.650658319649751</v>
+        <v>1.364591547034351</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.52037841887649</v>
+        <v>1.550497185835267</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.382080310596141</v>
+        <v>1.709045040231131</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.382093296721163</v>
+        <v>1.289352211511635</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.725049566173813</v>
+        <v>1.347117396770937</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.55561378879143</v>
+        <v>1.860092365092759</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.416559488313992</v>
+        <v>1.620403851758211</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.494733169299964</v>
+        <v>1.624188327943375</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.440087363538066</v>
+        <v>1.447487697731495</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.193230631940616</v>
+        <v>1.617729496310765</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.382240500065226</v>
+        <v>1.545228564549796</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.295034775798202</v>
+        <v>1.33731126195356</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.406450457930201</v>
+        <v>1.598709110295533</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.503721058175838</v>
+        <v>1.576186251551559</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.609034152852993</v>
+        <v>1.646109554970835</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.686289139681733</v>
+        <v>1.664822249391201</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.494162776620391</v>
+        <v>1.534850912818597</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.553804999062373</v>
+        <v>1.462933588229805</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.59622711933274</v>
+        <v>1.376936856321267</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.609153971993271</v>
+        <v>1.324383468592257</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.573286789229907</v>
+        <v>1.364018054908139</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.4121726245861</v>
+        <v>1.589876397184223</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.689851372347706</v>
+        <v>1.445008595847008</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.395188664808576</v>
+        <v>1.522419085106397</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.712163093136241</v>
+        <v>1.347289214501846</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.366452357942559</v>
+        <v>1.696621844174544</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.439584134650778</v>
+        <v>1.386878243935737</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.558124331790466</v>
+        <v>1.995446941121683</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.429003521216744</v>
+        <v>1.641042172399567</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1.644005520880838</v>
+        <v>1.751966670666112</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.398359235085738</v>
+        <v>1.582006826459366</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.465669554605525</v>
+        <v>1.516723940484191</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.513148750026662</v>
+        <v>1.298913721230021</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.377157770787027</v>
+        <v>1.580101016030233</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.467349173162443</v>
+        <v>1.440200549073335</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.526440981509062</v>
+        <v>1.216201206555772</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.540391353896166</v>
+        <v>1.541817707325301</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.522277488020639</v>
+        <v>1.581492620204519</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.494055257228224</v>
+        <v>1.34823313209905</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.53844708867495</v>
+        <v>1.56147234536008</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.431165726619887</v>
+        <v>1.360968731197271</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.541625466592937</v>
+        <v>1.577236982570262</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.386825328829234</v>
+        <v>1.427862476416193</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.379614987625239</v>
+        <v>1.497032580245608</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.413312666851517</v>
+        <v>1.491837111645987</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.631018437398634</v>
+        <v>1.450794005441799</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.489358592536752</v>
+        <v>1.445520332603734</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.445744854789272</v>
+        <v>1.432205765154775</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.696154762521098</v>
+        <v>1.665394756477299</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.20076915024759</v>
+        <v>1.568547350200673</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.493583063794325</v>
+        <v>1.588074771942549</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.777872302546074</v>
+        <v>1.698010670588421</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.377836998656428</v>
+        <v>1.347684435705691</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.664586547266219</v>
+        <v>1.477862651903315</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.583580824159911</v>
+        <v>1.737009410485412</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.447392735483325</v>
+        <v>1.431879731377401</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.358485217016755</v>
+        <v>1.678835378893426</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.378041406440308</v>
+        <v>1.438417447055482</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.172455909996025</v>
+        <v>1.558280930601145</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.532755507302809</v>
+        <v>1.841124589909879</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.722507167923261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.371296630327108</v>
+        <v>1.709924098579626</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.367167610623752</v>
+        <v>1.353622147535383</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.623734440470985</v>
+        <v>1.698201201740736</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.641642889593166</v>
+        <v>1.41836238451039</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.558559677934095</v>
+        <v>1.356175568035735</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.391087772370865</v>
+        <v>1.403834278161952</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.491985976613868</v>
+        <v>1.434844595207527</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.790375170645393</v>
+        <v>1.353091208858415</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.54612441490738</v>
+        <v>1.500487626465436</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.422439351254512</v>
+        <v>1.717699840654401</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.300621382363919</v>
+        <v>1.584699121553641</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.475183363221082</v>
+        <v>1.23267304043544</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.636698092680362</v>
+        <v>1.559400517171021</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.485966253545413</v>
+        <v>1.644705867512341</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.497114487947936</v>
+        <v>1.365417241892095</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.559230040750067</v>
+        <v>1.619662784944608</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.319650625800399</v>
+        <v>1.496617644379467</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.608382082640221</v>
+        <v>1.805510029603036</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.483468159895361</v>
+        <v>1.503438429235964</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.533309899002667</v>
+        <v>1.597818271558052</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.435193455028255</v>
+        <v>1.335969715967428</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.313461171981278</v>
+        <v>1.742177524056984</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.801474441521998</v>
+        <v>1.273365453532882</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.335230921553153</v>
+        <v>1.397832230945609</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.490916801604231</v>
+        <v>1.777363613375336</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.585567105459817</v>
+        <v>1.341923605190764</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.450391408620181</v>
+        <v>1.506900522833889</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.287257467333293</v>
+        <v>1.409930934896637</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.455962956961333</v>
+        <v>1.494818256241225</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.356444156118666</v>
+        <v>1.154351879537501</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.367058339634064</v>
+        <v>1.264641132380298</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.687184728777063</v>
+        <v>1.359427083941954</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.595269830450475</v>
+        <v>1.591291054888267</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.631453429159667</v>
+        <v>1.572502080545569</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.566912688855643</v>
+        <v>1.795213407666236</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.580159550341598</v>
+        <v>1.646875291347471</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.413098527127792</v>
+        <v>1.74662687650188</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.450213857484098</v>
+        <v>1.520863554664803</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.658481333103882</v>
+        <v>1.543202089397805</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.738040919578109</v>
+        <v>1.573970649761894</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.535866768116855</v>
+        <v>1.271541745297554</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.433247262596738</v>
+        <v>1.295926715088747</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.531152592797256</v>
+        <v>1.403953249397566</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.34523708276233</v>
+        <v>1.402308730231619</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.472934617014137</v>
+        <v>1.298676493169341</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.524479973801214</v>
+        <v>1.431339295525056</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.966424453825186</v>
+        <v>1.269267890982516</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.763865579211046</v>
+        <v>1.582713551533899</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.454839113650174</v>
+        <v>1.533573331721303</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1.534855347486415</v>
+        <v>1.436863025400613</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.348719639881317</v>
+        <v>1.464392350990018</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.556648740922505</v>
+        <v>1.548351958918248</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.785605788041097</v>
+        <v>1.409308091221182</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.34863147736974</v>
+        <v>1.42228864671654</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.696908712503499</v>
+        <v>1.801115966207333</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.225461392727938</v>
+        <v>1.450171516507284</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.560244431676577</v>
+        <v>1.279211070213938</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.570592421957497</v>
+        <v>1.644832055593373</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.658369226816101</v>
+        <v>1.466980356355508</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.536497277230285</v>
+        <v>1.522177139074383</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.297690888928214</v>
+        <v>1.337133311497918</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.652097735944465</v>
+        <v>1.570364709162445</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.48196131615275</v>
+        <v>1.396003047408016</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.580257818597691</v>
+        <v>1.494324468421506</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.418452238639627</v>
+        <v>1.484908830455989</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.467185863528848</v>
+        <v>1.647627612503702</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.586038127340274</v>
+        <v>1.477216700513772</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.66868746847678</v>
+        <v>1.435933369304038</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.495589483329204</v>
+        <v>1.408954296733148</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.74493147964219</v>
+        <v>1.534498684935059</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.372438733691824</v>
+        <v>1.310502531957606</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.446876403140885</v>
+        <v>1.502820107384781</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.517075872859366</v>
+        <v>1.457037148358274</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.462358325789268</v>
+        <v>1.58623555025214</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.403389058969093</v>
+        <v>1.435485777808122</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.363446580353183</v>
+        <v>1.703077253994912</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.539634703122114</v>
+        <v>1.430101419046283</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.563205343149524</v>
+        <v>1.395494341005157</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.6135008786895</v>
+        <v>1.597852769149143</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.328012670631894</v>
+        <v>1.577979208864468</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.744528304655327</v>
+        <v>1.697388205158047</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.651035288486899</v>
+        <v>1.257063109340155</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.272029296899168</v>
+        <v>1.551482976120907</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.453141225737877</v>
+        <v>1.355413691047105</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.419808911744134</v>
+        <v>1.427502925039332</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.625367279817566</v>
+        <v>1.759092635756289</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.639543174965951</v>
+        <v>1.418697053363259</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.364370739382001</v>
+        <v>1.301760058311724</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.051774461905759</v>
+        <v>1.441730496716787</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.38253078101867</v>
+        <v>1.237546793424676</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.365487152723771</v>
+        <v>1.451389911950527</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.473983436271591</v>
+        <v>1.286489941845736</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.406796094993804</v>
+        <v>1.583358467504856</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.435919801773331</v>
+        <v>1.41993100285338</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.701633465870783</v>
+        <v>1.761968014478565</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.616980244933042</v>
+        <v>1.467598101173021</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.700250499080073</v>
+        <v>1.384096837764421</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.616676776074486</v>
+        <v>1.340855002285211</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.679032805668508</v>
+        <v>1.424539872736077</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.719691149669014</v>
+        <v>1.549105331715297</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.549321127753496</v>
+        <v>1.262272068921911</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.450254706868836</v>
+        <v>1.465895715494941</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.369096694646153</v>
+        <v>1.686677649989977</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.422784334606139</v>
+        <v>1.736072674786443</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.427582148822478</v>
+        <v>1.613990657903513</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.4217710617883</v>
+        <v>1.31337606249378</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.662926322605683</v>
+        <v>1.395806169036399</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.318060930738124</v>
+        <v>1.660612372439784</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.442976447575381</v>
+        <v>1.490570228833944</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.603850744063617</v>
+        <v>1.642481050342842</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.514792315142012</v>
+        <v>1.357484924602996</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.331683294018251</v>
+        <v>1.225333208847059</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.669380449299068</v>
+        <v>1.537653373064201</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.457151692844881</v>
+        <v>1.647726040145706</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.65966968858105</v>
+        <v>1.462182466081403</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.559774357616655</v>
+        <v>1.573867487564493</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.307944990799564</v>
+        <v>1.704581504530711</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.589601802543374</v>
+        <v>1.689050889548354</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.711138417697773</v>
+        <v>1.242286413616784</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.35524104545846</v>
+        <v>1.414239914407626</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.604591171577495</v>
+        <v>1.52090873037929</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.518590934872056</v>
+        <v>1.257251933939463</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.310772285691158</v>
+        <v>1.485501453651495</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.365565315897662</v>
+        <v>1.728749665855911</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.599442317915845</v>
+        <v>1.498761542354632</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.918846366733889</v>
+        <v>1.702204150804222</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>1.302678598023767</v>
+        <v>1.644558954558104</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.622267858976677</v>
+        <v>1.460783647649943</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.548405258995823</v>
+        <v>1.536036059391559</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.540943682932799</v>
+        <v>1.639629379735336</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.463982645692941</v>
+        <v>1.484342152422739</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.709572169808272</v>
+        <v>1.502647368892047</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.346218114985404</v>
+        <v>1.441655577446078</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.612017335655883</v>
+        <v>1.63256922333518</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.706843603402135</v>
+        <v>1.425737521766707</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.413702358711132</v>
+        <v>1.287071813388624</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.511196108764542</v>
+        <v>1.508193105477157</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.576134064677868</v>
+        <v>1.615944855415258</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.467774094563119</v>
+        <v>1.513002842891838</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.481729387703648</v>
+        <v>1.380606715065671</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.495050680022593</v>
+        <v>1.493611498261561</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.301778766698261</v>
+        <v>1.444380858541784</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.506818581813305</v>
+        <v>1.364043351524325</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.465506006066611</v>
+        <v>1.692343339328515</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.203166216583128</v>
+        <v>1.74238379291897</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.257664499614205</v>
+        <v>1.557982344674162</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.312079197520926</v>
+        <v>1.606340419456302</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.490997572785237</v>
+        <v>1.272802961948988</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.543143310227454</v>
+        <v>1.514436119222522</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.434654322607738</v>
+        <v>1.291861214200898</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.598170961883054</v>
+        <v>1.856769791848097</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.518213043563111</v>
+        <v>1.423096360630441</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.025584849778323</v>
+        <v>1.63642516983443</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.289853978876702</v>
+        <v>1.497015714429621</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.341312502017942</v>
+        <v>1.439370093219855</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_localizer.xlsx
+++ b/sequences/04_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>dog/dog063.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
   </si>
   <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>face/face070.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
+    <t>dog/dog084.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.622532345963193</v>
+        <v>1.489378905663011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.576619640623526</v>
+        <v>1.480656100483288</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.452635528107567</v>
+        <v>1.405599296838011</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.414077418208635</v>
+        <v>1.599414472275817</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.510362835603473</v>
+        <v>1.617325748550339</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.502365671397575</v>
+        <v>1.53386928139428</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.715254898632581</v>
+        <v>1.417365986723518</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.375007638098418</v>
+        <v>1.630615863357785</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.70932260164898</v>
+        <v>1.484970413551536</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.463350692715424</v>
+        <v>1.430413781754767</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.450130352613336</v>
+        <v>1.531290940123846</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.555948338341123</v>
+        <v>1.513054239151991</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.527870536940896</v>
+        <v>1.665378425825198</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.440533329541792</v>
+        <v>1.588142601926479</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.423862090893859</v>
+        <v>1.730287402959964</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.350984239208934</v>
+        <v>1.497467384693934</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.478375694613815</v>
+        <v>1.32792229538785</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.475973320798575</v>
+        <v>1.379184398601162</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.427992388895879</v>
+        <v>1.558370539812431</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.257535398273107</v>
+        <v>1.656750970205947</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.781474141679447</v>
+        <v>1.822874314172326</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.78668713988897</v>
+        <v>1.615814083885867</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.544189479793242</v>
+        <v>1.767806952934917</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.541678971871119</v>
+        <v>1.659627723326858</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.314162581798068</v>
+        <v>1.361138781825987</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.557078085868491</v>
+        <v>1.700312598366981</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.601807899138133</v>
+        <v>1.548564034720196</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.189290138672338</v>
+        <v>1.635549044510351</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.35089513325539</v>
+        <v>1.563899099831364</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.858298069568486</v>
+        <v>1.437287933669677</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.571598612128106</v>
+        <v>1.604602169423785</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.263909809851372</v>
+        <v>1.43861331027749</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.319964003454702</v>
+        <v>1.295326588497157</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.447212899979243</v>
+        <v>1.310014608763764</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.387264646086722</v>
+        <v>1.501062237276205</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.65284306835258</v>
+        <v>1.524828599308455</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.304813249223358</v>
+        <v>1.614800608403744</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.574190510610667</v>
+        <v>1.386623719202721</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.673777939890131</v>
+        <v>1.381159115412416</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.64063541983804</v>
+        <v>1.806533694243157</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.364591547034351</v>
+        <v>1.620973562504699</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.550497185835267</v>
+        <v>1.362917475398306</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.709045040231131</v>
+        <v>1.555761696061863</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.289352211511635</v>
+        <v>1.835087613536182</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.347117396770937</v>
+        <v>1.550846884855009</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.860092365092759</v>
+        <v>1.413112294211039</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.620403851758211</v>
+        <v>1.428560044197299</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.624188327943375</v>
+        <v>1.533366186141342</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.447487697731495</v>
+        <v>1.633946932057832</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.617729496310765</v>
+        <v>1.272364112787716</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.545228564549796</v>
+        <v>1.462796335389018</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.33731126195356</v>
+        <v>1.741863515539491</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.598709110295533</v>
+        <v>1.67976715431464</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.576186251551559</v>
+        <v>1.559312525961213</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.646109554970835</v>
+        <v>1.660204086849655</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.664822249391201</v>
+        <v>1.406013195188783</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.534850912818597</v>
+        <v>1.553587957419283</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.462933588229805</v>
+        <v>1.387304974460836</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.376936856321267</v>
+        <v>1.376546529207832</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.324383468592257</v>
+        <v>1.801362941043919</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.364018054908139</v>
+        <v>1.407812949127604</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.589876397184223</v>
+        <v>1.482016539423525</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.445008595847008</v>
+        <v>1.285522071706608</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.522419085106397</v>
+        <v>1.432976829967891</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.347289214501846</v>
+        <v>1.362835208808226</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.696621844174544</v>
+        <v>1.420155691222074</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.386878243935737</v>
+        <v>1.596335477427994</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.995446941121683</v>
+        <v>1.489938691437992</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.641042172399567</v>
+        <v>1.492499666221734</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.751966670666112</v>
+        <v>1.507821063998963</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.582006826459366</v>
+        <v>1.432428045613471</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.516723940484191</v>
+        <v>1.558229558980304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.298913721230021</v>
+        <v>1.661280380901664</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.580101016030233</v>
+        <v>1.582615034682957</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.440200549073335</v>
+        <v>1.473282038399251</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.216201206555772</v>
+        <v>1.604189923305989</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.541817707325301</v>
+        <v>1.591112383015198</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.581492620204519</v>
+        <v>1.589448197592377</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.34823313209905</v>
+        <v>1.369234263628244</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.56147234536008</v>
+        <v>1.282466334267109</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.360968731197271</v>
+        <v>1.619390261414075</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.577236982570262</v>
+        <v>1.638315820917205</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.427862476416193</v>
+        <v>1.501296332692952</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.497032580245608</v>
+        <v>1.566406890874229</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.491837111645987</v>
+        <v>1.331537778304715</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.450794005441799</v>
+        <v>1.513202831813588</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.445520332603734</v>
+        <v>1.518764339801844</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.432205765154775</v>
+        <v>1.866686104931178</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.665394756477299</v>
+        <v>1.482851627640171</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.568547350200673</v>
+        <v>1.357707936963848</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.588074771942549</v>
+        <v>1.324096039365397</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.698010670588421</v>
+        <v>1.467396851637519</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.347684435705691</v>
+        <v>1.155730635134419</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.477862651903315</v>
+        <v>1.620616762712944</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.737009410485412</v>
+        <v>1.509531571983454</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.431879731377401</v>
+        <v>1.363080460366199</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.678835378893426</v>
+        <v>1.518250062532256</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.438417447055482</v>
+        <v>1.370282556244728</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.558280930601145</v>
+        <v>1.806962357904136</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.841124589909879</v>
+        <v>1.54413210427366</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1.533847322752951</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.709924098579626</v>
+        <v>1.393105707909822</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.353622147535383</v>
+        <v>1.573717675549501</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.698201201740736</v>
+        <v>1.591262127610937</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.41836238451039</v>
+        <v>1.37666114081564</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.356175568035735</v>
+        <v>1.777793045600888</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.403834278161952</v>
+        <v>1.70849010057821</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.434844595207527</v>
+        <v>1.606182082660699</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.353091208858415</v>
+        <v>1.401036752924592</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.500487626465436</v>
+        <v>1.383439349006411</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.717699840654401</v>
+        <v>1.492797729970127</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.584699121553641</v>
+        <v>1.785684940366523</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.23267304043544</v>
+        <v>1.384499155980095</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.559400517171021</v>
+        <v>1.77327795799884</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.644705867512341</v>
+        <v>1.620458408734093</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.365417241892095</v>
+        <v>1.51070066122503</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.619662784944608</v>
+        <v>1.452792957501945</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.496617644379467</v>
+        <v>1.492826873866458</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.805510029603036</v>
+        <v>1.405672051001488</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.503438429235964</v>
+        <v>1.365780565103647</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.597818271558052</v>
+        <v>1.533706881205757</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.335969715967428</v>
+        <v>1.400954761872467</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.742177524056984</v>
+        <v>1.179303130460144</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.273365453532882</v>
+        <v>1.466538584635161</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.397832230945609</v>
+        <v>1.305865769980685</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.777363613375336</v>
+        <v>1.701591112220587</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.341923605190764</v>
+        <v>1.786791702592448</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.506900522833889</v>
+        <v>1.724502382926853</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.409930934896637</v>
+        <v>1.393834175036019</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.494818256241225</v>
+        <v>1.549738679569217</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.154351879537501</v>
+        <v>1.41184051649275</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.264641132380298</v>
+        <v>1.550140054107178</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.359427083941954</v>
+        <v>1.170756022303441</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.591291054888267</v>
+        <v>1.384644633325943</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.572502080545569</v>
+        <v>1.409977779696898</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.795213407666236</v>
+        <v>1.241399165328211</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.646875291347471</v>
+        <v>1.543546619012909</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.74662687650188</v>
+        <v>1.327888546144053</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.520863554664803</v>
+        <v>1.228229174883784</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.543202089397805</v>
+        <v>1.302186916304979</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.573970649761894</v>
+        <v>1.41458989791551</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.271541745297554</v>
+        <v>1.423668141357151</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.295926715088747</v>
+        <v>1.347535813219704</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.403953249397566</v>
+        <v>1.642992164548717</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.402308730231619</v>
+        <v>1.490584921738246</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1.298676493169341</v>
+        <v>1.571537073444832</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.431339295525056</v>
+        <v>1.566989909854215</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.269267890982516</v>
+        <v>1.571954749100173</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.582713551533899</v>
+        <v>1.442956801933981</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.533573331721303</v>
+        <v>1.373196059100867</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.436863025400613</v>
+        <v>1.689484698566123</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.464392350990018</v>
+        <v>1.597395325133237</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.548351958918248</v>
+        <v>1.496624267330955</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.409308091221182</v>
+        <v>1.994080044006684</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.42228864671654</v>
+        <v>1.674951439573672</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.801115966207333</v>
+        <v>1.640629018421497</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.450171516507284</v>
+        <v>1.519466361446696</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.279211070213938</v>
+        <v>1.42216974610062</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.644832055593373</v>
+        <v>1.360500386788082</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.466980356355508</v>
+        <v>1.602594534991471</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.522177139074383</v>
+        <v>1.5314524460265</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.337133311497918</v>
+        <v>1.279581357818526</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.570364709162445</v>
+        <v>1.455149997784593</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.396003047408016</v>
+        <v>1.505263534836344</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.494324468421506</v>
+        <v>1.265583200380847</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.484908830455989</v>
+        <v>1.589294071258599</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.647627612503702</v>
+        <v>1.473926429738289</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.477216700513772</v>
+        <v>1.562746846656288</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.435933369304038</v>
+        <v>1.399791496626439</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.408954296733148</v>
+        <v>1.548852704911121</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.534498684935059</v>
+        <v>1.31736901760912</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.310502531957606</v>
+        <v>1.401660222018772</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.502820107384781</v>
+        <v>1.718260797293129</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.457037148358274</v>
+        <v>1.294734339275371</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.58623555025214</v>
+        <v>1.752643811432606</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.435485777808122</v>
+        <v>1.522054741718724</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.703077253994912</v>
+        <v>1.5014199058679</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.430101419046283</v>
+        <v>1.460404031170032</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.395494341005157</v>
+        <v>1.686348442386228</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.597852769149143</v>
+        <v>1.500498646686641</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.577979208864468</v>
+        <v>1.59939984703075</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.697388205158047</v>
+        <v>1.318188341181793</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.257063109340155</v>
+        <v>1.445693318265763</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.551482976120907</v>
+        <v>1.561429725361744</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.355413691047105</v>
+        <v>1.199947642043499</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.427502925039332</v>
+        <v>1.479508619567544</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.759092635756289</v>
+        <v>1.610257829991659</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.418697053363259</v>
+        <v>1.538903712887607</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.301760058311724</v>
+        <v>1.682817701954937</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.441730496716787</v>
+        <v>1.342398479933564</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.237546793424676</v>
+        <v>1.606186406587168</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.451389911950527</v>
+        <v>1.591364689547388</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.286489941845736</v>
+        <v>1.431806226943421</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.583358467504856</v>
+        <v>1.703600336780478</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.41993100285338</v>
+        <v>1.403997927387892</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.761968014478565</v>
+        <v>1.290240798756857</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.467598101173021</v>
+        <v>1.501781493786689</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.384096837764421</v>
+        <v>1.507823015849912</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.340855002285211</v>
+        <v>1.386883620891881</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.424539872736077</v>
+        <v>1.578711102027952</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.549105331715297</v>
+        <v>1.460176788335441</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.262272068921911</v>
+        <v>1.54547996921439</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.465895715494941</v>
+        <v>1.664801542998511</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.686677649989977</v>
+        <v>1.50244811265982</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.736072674786443</v>
+        <v>1.42897563901527</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.613990657903513</v>
+        <v>1.580917095009011</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.31337606249378</v>
+        <v>1.628097781112714</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.395806169036399</v>
+        <v>1.533318745620115</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.660612372439784</v>
+        <v>1.537091681852955</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>1.490570228833944</v>
+        <v>1.472924046727926</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.642481050342842</v>
+        <v>1.451977519883469</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.357484924602996</v>
+        <v>1.308009608178788</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.225333208847059</v>
+        <v>1.529750236637982</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.537653373064201</v>
+        <v>1.218065010523634</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.647726040145706</v>
+        <v>1.520902044910797</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.462182466081403</v>
+        <v>1.651076660760717</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.573867487564493</v>
+        <v>1.599309378018703</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.704581504530711</v>
+        <v>1.212600311217341</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.689050889548354</v>
+        <v>1.636264962064386</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.242286413616784</v>
+        <v>1.578229013069908</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.414239914407626</v>
+        <v>1.681841484695292</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.52090873037929</v>
+        <v>1.509818352380761</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.257251933939463</v>
+        <v>1.407867028259861</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.485501453651495</v>
+        <v>1.749937229613234</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.728749665855911</v>
+        <v>1.331032253633617</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.498761542354632</v>
+        <v>1.518809696782525</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.702204150804222</v>
+        <v>1.50439202343017</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>1.644558954558104</v>
+        <v>1.46017571040892</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.460783647649943</v>
+        <v>1.422811156719452</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.536036059391559</v>
+        <v>1.645839784725665</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.639629379735336</v>
+        <v>1.422973436400002</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.484342152422739</v>
+        <v>1.579480676562772</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.502647368892047</v>
+        <v>1.432071303292487</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.441655577446078</v>
+        <v>1.424222136777828</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.63256922333518</v>
+        <v>1.459974363504257</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.425737521766707</v>
+        <v>1.412965726853907</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.287071813388624</v>
+        <v>1.722853817704169</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.508193105477157</v>
+        <v>1.432939439197316</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.615944855415258</v>
+        <v>1.501041800504482</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.513002842891838</v>
+        <v>1.575068156897137</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.380606715065671</v>
+        <v>1.235515042192382</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.493611498261561</v>
+        <v>1.519854282292386</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.444380858541784</v>
+        <v>1.493029137129586</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.364043351524325</v>
+        <v>1.359774776830915</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.692343339328515</v>
+        <v>1.266281868336052</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.74238379291897</v>
+        <v>1.376971439527552</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.557982344674162</v>
+        <v>1.386989739269945</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.606340419456302</v>
+        <v>1.63410997228072</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.272802961948988</v>
+        <v>1.522072968201798</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.514436119222522</v>
+        <v>1.380875068163613</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.291861214200898</v>
+        <v>1.615673468738167</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.856769791848097</v>
+        <v>1.239668972617609</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.423096360630441</v>
+        <v>1.512947819747196</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.63642516983443</v>
+        <v>1.608326337204329</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.497015714429621</v>
+        <v>1.837878670387281</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.439370093219855</v>
+        <v>1.476021185588553</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_localizer.xlsx
+++ b/sequences/04_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
   </si>
   <si>
     <t>flower/flower049.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
   </si>
   <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
   </si>
   <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
+    <t>face/face095.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
+    <t>house/house088.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.489378905663011</v>
+        <v>1.303965919086973</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.480656100483288</v>
+        <v>1.525836763878848</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.405599296838011</v>
+        <v>1.51955281341441</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.599414472275817</v>
+        <v>1.547431716447732</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.617325748550339</v>
+        <v>1.408215979285311</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.53386928139428</v>
+        <v>1.542808862131357</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.417365986723518</v>
+        <v>1.523569647562631</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.630615863357785</v>
+        <v>1.307252873431338</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.484970413551536</v>
+        <v>1.392071966063622</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.430413781754767</v>
+        <v>1.458596779033453</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.531290940123846</v>
+        <v>1.473853598041822</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.513054239151991</v>
+        <v>1.402354324093785</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.665378425825198</v>
+        <v>1.305966450898994</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.588142601926479</v>
+        <v>1.453590782293365</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.730287402959964</v>
+        <v>1.486810881052165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.497467384693934</v>
+        <v>1.269174761095719</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.32792229538785</v>
+        <v>1.618379025173658</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.379184398601162</v>
+        <v>1.080106512275202</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.558370539812431</v>
+        <v>1.642370308852854</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.656750970205947</v>
+        <v>1.560597801277462</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.822874314172326</v>
+        <v>1.379403280013911</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.615814083885867</v>
+        <v>1.694938316117652</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.767806952934917</v>
+        <v>1.498150054549609</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.659627723326858</v>
+        <v>1.526975158306393</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.361138781825987</v>
+        <v>1.642658280960269</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.700312598366981</v>
+        <v>1.524783845816408</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.548564034720196</v>
+        <v>1.360792266540051</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.635549044510351</v>
+        <v>1.331619117794225</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.563899099831364</v>
+        <v>1.684591609404463</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.437287933669677</v>
+        <v>1.702687606397169</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.604602169423785</v>
+        <v>1.360959210759068</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.43861331027749</v>
+        <v>1.35129939345692</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.295326588497157</v>
+        <v>1.600472030022696</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.310014608763764</v>
+        <v>1.202890488830391</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.501062237276205</v>
+        <v>1.32735439533396</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.524828599308455</v>
+        <v>1.392591198695511</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.614800608403744</v>
+        <v>1.690558381853144</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.386623719202721</v>
+        <v>1.612455755713017</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.381159115412416</v>
+        <v>1.471985086919485</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.806533694243157</v>
+        <v>1.730001181103168</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.620973562504699</v>
+        <v>1.52620657770333</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.362917475398306</v>
+        <v>1.55200382981904</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.555761696061863</v>
+        <v>1.556240524883961</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.835087613536182</v>
+        <v>1.546603309998571</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.550846884855009</v>
+        <v>1.514131021507339</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.413112294211039</v>
+        <v>1.573011553996784</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.428560044197299</v>
+        <v>1.420891049173085</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.533366186141342</v>
+        <v>1.317373090667973</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.633946932057832</v>
+        <v>1.328072787034519</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.272364112787716</v>
+        <v>1.503959764617887</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.462796335389018</v>
+        <v>1.456188189261019</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.741863515539491</v>
+        <v>1.336386495483609</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.67976715431464</v>
+        <v>1.640009786354126</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.559312525961213</v>
+        <v>1.502864464863626</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.660204086849655</v>
+        <v>1.417077476400415</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.406013195188783</v>
+        <v>1.642909062219682</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.553587957419283</v>
+        <v>1.675050240098725</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.387304974460836</v>
+        <v>1.527959752390645</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.376546529207832</v>
+        <v>1.291866945309272</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.801362941043919</v>
+        <v>1.234509041542557</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.407812949127604</v>
+        <v>1.46878406263976</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.482016539423525</v>
+        <v>1.473039596405704</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.285522071706608</v>
+        <v>1.479276205839687</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.432976829967891</v>
+        <v>1.444768939702247</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.362835208808226</v>
+        <v>1.656143923544151</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.420155691222074</v>
+        <v>1.239752588362994</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.596335477427994</v>
+        <v>1.509464622894276</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.489938691437992</v>
+        <v>1.593249725741189</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.492499666221734</v>
+        <v>1.527907744958401</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.507821063998963</v>
+        <v>1.233896063872415</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.432428045613471</v>
+        <v>1.722042385662148</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.558229558980304</v>
+        <v>1.477310725825695</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.661280380901664</v>
+        <v>1.263502708945432</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.582615034682957</v>
+        <v>1.374187130788102</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.473282038399251</v>
+        <v>1.298119497526476</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1.604189923305989</v>
+        <v>1.602606143207033</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.591112383015198</v>
+        <v>1.623253202271704</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.589448197592377</v>
+        <v>1.426569992561935</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.369234263628244</v>
+        <v>1.447843218634958</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.282466334267109</v>
+        <v>1.321540633080025</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.619390261414075</v>
+        <v>1.233556740277343</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.638315820917205</v>
+        <v>1.536718428513682</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.501296332692952</v>
+        <v>1.543002112220683</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.566406890874229</v>
+        <v>1.490822398629989</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.331537778304715</v>
+        <v>1.768917223380562</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.513202831813588</v>
+        <v>1.214363683443093</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.518764339801844</v>
+        <v>1.551292029763477</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.866686104931178</v>
+        <v>1.131406499512079</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.482851627640171</v>
+        <v>1.362993299096019</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.357707936963848</v>
+        <v>1.492651452173411</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.324096039365397</v>
+        <v>1.44878047402709</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.467396851637519</v>
+        <v>1.509213067211163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.155730635134419</v>
+        <v>1.436640755792791</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.620616762712944</v>
+        <v>1.765377307368058</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.509531571983454</v>
+        <v>1.635652221267149</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.363080460366199</v>
+        <v>1.651939731009521</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.518250062532256</v>
+        <v>1.19011642076151</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.370282556244728</v>
+        <v>1.47289750133621</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.806962357904136</v>
+        <v>1.252545702393117</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.54413210427366</v>
+        <v>1.72150046714176</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.533847322752951</v>
+        <v>1.557856237686577</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.393105707909822</v>
+        <v>1.401830496828854</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.573717675549501</v>
+        <v>1.456643812987422</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.591262127610937</v>
+        <v>1.679498073011239</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.37666114081564</v>
+        <v>1.558377517581854</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.777793045600888</v>
+        <v>1.515354745152129</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.70849010057821</v>
+        <v>1.297865205380625</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.606182082660699</v>
+        <v>1.418666949354453</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.401036752924592</v>
+        <v>1.502288626951572</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.383439349006411</v>
+        <v>1.65922388312663</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.492797729970127</v>
+        <v>1.437874551797356</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.785684940366523</v>
+        <v>1.819964102894856</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.384499155980095</v>
+        <v>1.448926936578649</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.77327795799884</v>
+        <v>1.32377550159217</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.620458408734093</v>
+        <v>1.508543412069275</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.51070066122503</v>
+        <v>1.350525133020321</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.452792957501945</v>
+        <v>1.662182844194077</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.492826873866458</v>
+        <v>1.473371537006215</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.405672051001488</v>
+        <v>1.456083791248588</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.365780565103647</v>
+        <v>1.40040247133423</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.533706881205757</v>
+        <v>1.41269951519465</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.400954761872467</v>
+        <v>1.569072125943543</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.179303130460144</v>
+        <v>1.582925855859371</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.466538584635161</v>
+        <v>1.481666030362567</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.305865769980685</v>
+        <v>1.470314733651594</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.701591112220587</v>
+        <v>1.403303474480298</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.786791702592448</v>
+        <v>1.583727656740823</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.724502382926853</v>
+        <v>1.659533691674199</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.393834175036019</v>
+        <v>1.701425406088286</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.549738679569217</v>
+        <v>1.372235699110027</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.41184051649275</v>
+        <v>1.410727937749673</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.550140054107178</v>
+        <v>1.777366134031908</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.170756022303441</v>
+        <v>1.587982557233086</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.384644633325943</v>
+        <v>1.423915030811513</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.409977779696898</v>
+        <v>1.107743742996926</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.241399165328211</v>
+        <v>1.558528696215177</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.543546619012909</v>
+        <v>1.610948796164148</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.327888546144053</v>
+        <v>1.279595909902411</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.228229174883784</v>
+        <v>1.584728866804497</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.302186916304979</v>
+        <v>1.514671118371598</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.41458989791551</v>
+        <v>1.469759257460782</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.423668141357151</v>
+        <v>1.511585001947778</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.347535813219704</v>
+        <v>1.397850226696768</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.642992164548717</v>
+        <v>1.578166644958907</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.490584921738246</v>
+        <v>1.542700033841867</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1.571537073444832</v>
+        <v>1.41056550647377</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.566989909854215</v>
+        <v>1.333237989705345</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.571954749100173</v>
+        <v>1.547620572922385</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.442956801933981</v>
+        <v>1.490573025421241</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.373196059100867</v>
+        <v>1.5520957890465</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.689484698566123</v>
+        <v>1.416790414154505</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.597395325133237</v>
+        <v>1.679199372059044</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.496624267330955</v>
+        <v>1.63175776046195</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.994080044006684</v>
+        <v>1.553978526153913</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.674951439573672</v>
+        <v>1.288803308873261</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.640629018421497</v>
+        <v>1.436225652348004</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.519466361446696</v>
+        <v>1.419690246374195</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.42216974610062</v>
+        <v>1.64087752383668</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.360500386788082</v>
+        <v>1.507621748851593</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.602594534991471</v>
+        <v>1.567108490911443</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.5314524460265</v>
+        <v>1.489607759298047</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.279581357818526</v>
+        <v>1.765802054495351</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.455149997784593</v>
+        <v>1.383021903667639</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.505263534836344</v>
+        <v>1.542368261178076</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.265583200380847</v>
+        <v>1.59544036195341</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.589294071258599</v>
+        <v>1.47283391079151</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.473926429738289</v>
+        <v>1.451555323420804</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.562746846656288</v>
+        <v>1.657612994596573</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.399791496626439</v>
+        <v>1.450485628859728</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.548852704911121</v>
+        <v>1.259443667846077</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.31736901760912</v>
+        <v>1.342335727116343</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.401660222018772</v>
+        <v>1.57892804666344</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.718260797293129</v>
+        <v>1.339524248702164</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.294734339275371</v>
+        <v>1.686709292209931</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.752643811432606</v>
+        <v>1.487661728404254</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.522054741718724</v>
+        <v>1.4836566504797</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.5014199058679</v>
+        <v>1.45114960479419</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.460404031170032</v>
+        <v>1.519353813538068</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.686348442386228</v>
+        <v>1.674899957726227</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.500498646686641</v>
+        <v>1.203360212593936</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.59939984703075</v>
+        <v>1.462859859401141</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.318188341181793</v>
+        <v>1.551091139575385</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.445693318265763</v>
+        <v>1.72602748745506</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.561429725361744</v>
+        <v>1.834276591709665</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.199947642043499</v>
+        <v>1.493680673285317</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.479508619567544</v>
+        <v>1.658762099729703</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.610257829991659</v>
+        <v>1.75278107364439</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.538903712887607</v>
+        <v>1.418582412586347</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.682817701954937</v>
+        <v>1.542672402959179</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.342398479933564</v>
+        <v>1.488534346803792</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.606186406587168</v>
+        <v>1.598546525359347</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.591364689547388</v>
+        <v>1.454434927866981</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>1.431806226943421</v>
+        <v>1.791852031243501</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.703600336780478</v>
+        <v>1.484954113370002</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.403997927387892</v>
+        <v>1.357639099319577</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.290240798756857</v>
+        <v>1.503745564743831</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.501781493786689</v>
+        <v>1.527340195616431</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.507823015849912</v>
+        <v>1.45168901587554</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.386883620891881</v>
+        <v>1.624011899299664</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.578711102027952</v>
+        <v>1.403034824532697</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.460176788335441</v>
+        <v>1.30667176775409</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.54547996921439</v>
+        <v>1.397013138758274</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.664801542998511</v>
+        <v>1.599753978976283</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.50244811265982</v>
+        <v>1.461171226449052</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.42897563901527</v>
+        <v>1.631948975020134</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.580917095009011</v>
+        <v>1.575190907881882</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.628097781112714</v>
+        <v>1.442450903055552</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.533318745620115</v>
+        <v>1.525004055310567</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.537091681852955</v>
+        <v>1.951353901403867</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.472924046727926</v>
+        <v>1.504511100280125</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.451977519883469</v>
+        <v>1.361522364085912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.308009608178788</v>
+        <v>1.656875032448208</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.529750236637982</v>
+        <v>1.582745473732012</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.218065010523634</v>
+        <v>1.482861823898073</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.520902044910797</v>
+        <v>1.674945153318733</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.651076660760717</v>
+        <v>1.601524517398837</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.599309378018703</v>
+        <v>1.690597323677425</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.212600311217341</v>
+        <v>1.572369040199038</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.636264962064386</v>
+        <v>1.349687912859548</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.578229013069908</v>
+        <v>1.249537387390126</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.681841484695292</v>
+        <v>1.258158312391749</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.509818352380761</v>
+        <v>1.327175579743981</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.407867028259861</v>
+        <v>1.484416438879033</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.749937229613234</v>
+        <v>1.490057797151468</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.331032253633617</v>
+        <v>1.394775021660514</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.518809696782525</v>
+        <v>1.41666013717295</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.50439202343017</v>
+        <v>1.551553677455767</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.46017571040892</v>
+        <v>1.549475762654553</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.422811156719452</v>
+        <v>1.628283293163526</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.645839784725665</v>
+        <v>1.610131843442075</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.422973436400002</v>
+        <v>1.435689042105092</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.579480676562772</v>
+        <v>1.776463775751189</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.432071303292487</v>
+        <v>1.44435952096778</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.424222136777828</v>
+        <v>1.561869131016493</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.459974363504257</v>
+        <v>1.633032622858407</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.412965726853907</v>
+        <v>1.414873875902084</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.722853817704169</v>
+        <v>1.572988422993768</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.432939439197316</v>
+        <v>1.428210532362964</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.501041800504482</v>
+        <v>1.779584000194492</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.575068156897137</v>
+        <v>1.529469030587989</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>1.235515042192382</v>
+        <v>1.398278280761946</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.519854282292386</v>
+        <v>1.186333083877265</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.493029137129586</v>
+        <v>1.303327292986115</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.359774776830915</v>
+        <v>1.462712638069407</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.266281868336052</v>
+        <v>1.630424468703122</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.376971439527552</v>
+        <v>1.586625812486113</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.386989739269945</v>
+        <v>1.301091470151771</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.63410997228072</v>
+        <v>1.332837351879085</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.522072968201798</v>
+        <v>1.489707598985622</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.380875068163613</v>
+        <v>1.675333121571062</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.615673468738167</v>
+        <v>1.494584407177743</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.239668972617609</v>
+        <v>1.396451966108377</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.512947819747196</v>
+        <v>1.567309194198394</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.608326337204329</v>
+        <v>1.382010483231134</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.837878670387281</v>
+        <v>1.635516922951962</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.476021185588553</v>
+        <v>1.675719283978916</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/04_localizer.xlsx
+++ b/sequences/04_localizer.xlsx
@@ -43,772 +43,772 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>flower/flower085.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
   </si>
   <si>
     <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1.473853598041822</v>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1.402354324093785</v>
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1.305966450898994</v>
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1.618379025173658</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1.080106512275202</v>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1.498150054549609</v>
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1.526975158306393</v>
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1.524783845816408</v>
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>1.600472030022696</v>
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1.202890488830391</v>
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1.690558381853144</v>
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>1.730001181103168</v>
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>1.573011553996784</v>
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>1.420891049173085</v>
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>1.640009786354126</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>1.502864464863626</v>
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>1.477310725825695</v>
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>1.374187130788102</v>
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>1.602606143207033</v>
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>1.623253202271704</v>
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>1.426569992561935</v>
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>1.131406499512079</v>
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>1.492651452173411</v>
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>1.651939731009521</v>
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1.19011642076151</v>
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>1.456643812987422</v>
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>1.456083791248588</v>
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>1.41269951519465</v>
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>1.481666030362567</v>
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>1.403303474480298</v>
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>1.583727656740823</v>
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>1.659533691674199</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,7 +3763,7 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>1.701425406088286</v>
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3843,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>1.587982557233086</v>
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>1.610948796164148</v>
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>1.41056550647377</v>
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>1.5520957890465</v>
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>1.553978526153913</v>
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>1.436225652348004</v>
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>1.419690246374195</v>
@@ -4343,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>1.64087752383668</v>
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
         <v>1.489607759298047</v>
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>1.551091139575385</v>
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <v>1.75278107364439</v>
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
         <v>1.484954113370002</v>
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>1.503745564743831</v>
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <v>1.527340195616431</v>
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5183,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>1.403034824532697</v>
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5403,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
         <v>1.361522364085912</v>
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5623,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <v>1.327175579743981</v>
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
         <v>1.41666013717295</v>
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
         <v>1.572988422993768</v>
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <v>1.428210532362964</v>
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <v>1.398278280761946</v>
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
         <v>1.489707598985622</v>
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <v>1.494584407177743</v>
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
